--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T10:27:14+00:00</t>
+    <t>2025-07-25T13:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T13:53:43+00:00</t>
+    <t>2025-07-28T11:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T11:47:16+00:00</t>
+    <t>2025-07-28T13:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Usager</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -804,7 +804,7 @@
     <t>This extension adds the insee code (5 digits) to the address | Ajout du code insee (5 chiffres) à l'adresse postale</t>
   </si>
   <si>
-    <t>codeCommuneNaissance</t>
+    <t>communeNaissance</t>
   </si>
   <si>
     <t>Patient.extension:birthPlace.value[x].use</t>
@@ -2939,7 +2939,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.6640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:00:34+00:00</t>
+    <t>2025-07-29T08:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11249,7 +11249,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:16:15+00:00</t>
+    <t>2025-07-30T16:43:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:43:10+00:00</t>
+    <t>2025-07-31T07:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:16:30+00:00</t>
+    <t>2025-07-31T07:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:17:41+00:00</t>
+    <t>2025-07-31T10:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2038,7 +2038,7 @@
     <t>Ordre d’enregistrement de la naissance dans le registre d’état civil de la commune de naissance pour le mois de la naissance. Il compose les 3 derniers chiffres du NIR de l'usager avant la clé de sécurité et permet de distinguer les personnes nées au même lieu et à la même période. Il est obligatoire si le NIR n'est pas transmis.</t>
   </si>
   <si>
-    <t>ordreNaissance</t>
+    <t>ordreNaissanceEtatCivil</t>
   </si>
   <si>
     <t>Patient.birthDate.value</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T10:47:16+00:00</t>
+    <t>2025-07-31T12:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T12:59:07+00:00</t>
+    <t>2025-07-31T13:18:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
